--- a/Assignment 3/tables/assig3.xlsx
+++ b/Assignment 3/tables/assig3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhay/Latex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhay/Latex/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0862DC1-D628-014F-AF94-A12F9710A6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F85702-5823-2D41-B293-29239DF5F86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{F1CC37AB-089E-9244-B212-E3D3A1E50E59}"/>
   </bookViews>
@@ -39,12 +39,6 @@
     <t>Weights</t>
   </si>
   <si>
-    <t>Number of students (frequency)</t>
-  </si>
-  <si>
-    <t>31 -35</t>
-  </si>
-  <si>
     <t>36 - 40</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>71 - 75</t>
+  </si>
+  <si>
+    <t>31 - 35</t>
+  </si>
+  <si>
+    <t>Number of  Students (frequency)</t>
   </si>
 </sst>
 </file>
@@ -430,96 +430,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C029700-32EF-FC4F-A8DA-E0AE3CAEC731}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="G3">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="H3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="J3">
         <v>1</v>
       </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
